--- a/po_analysis_by_asin/B0BSB4TYHV_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB4TYHV_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,159 +452,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>216</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>336</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>336</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>48</v>
@@ -612,9 +612,257 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
         <v>16</v>
       </c>
     </row>
@@ -629,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,65 +899,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>744</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>624</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>240</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>112</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>64</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSB4TYHV_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB4TYHV_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -893,7 +894,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1056,887 @@
       </c>
       <c r="B21" t="n">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-23.17870295691156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>171.2464854563795</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>73</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.31227442871758</v>
+      </c>
+      <c r="D3" t="n">
+        <v>175.8274711056413</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-27.7933072492904</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171.6393807630572</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-27.57592564660463</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.6028190745696</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-19.40546239322103</v>
+      </c>
+      <c r="D6" t="n">
+        <v>162.7451755532419</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-19.04756806199492</v>
+      </c>
+      <c r="D7" t="n">
+        <v>171.5964373188206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>74</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-22.04123541458574</v>
+      </c>
+      <c r="D8" t="n">
+        <v>168.7068401717488</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-17.18307259599341</v>
+      </c>
+      <c r="D9" t="n">
+        <v>170.6845228871883</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-18.64649781873675</v>
+      </c>
+      <c r="D10" t="n">
+        <v>173.2109355932137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-28.02153132516399</v>
+      </c>
+      <c r="D11" t="n">
+        <v>179.9467448169417</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-20.68711174533389</v>
+      </c>
+      <c r="D12" t="n">
+        <v>173.88550339502</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-16.12256572095369</v>
+      </c>
+      <c r="D13" t="n">
+        <v>175.0201481840314</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-17.25789275544621</v>
+      </c>
+      <c r="D14" t="n">
+        <v>174.4990766053326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.5947273267934</v>
+      </c>
+      <c r="D15" t="n">
+        <v>181.4724085642404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-22.75828070123155</v>
+      </c>
+      <c r="D16" t="n">
+        <v>168.0360761961781</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.15390364201326</v>
+      </c>
+      <c r="D17" t="n">
+        <v>180.1492408351156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-14.65769044632731</v>
+      </c>
+      <c r="D18" t="n">
+        <v>172.0249109633792</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>81</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-22.25244819240448</v>
+      </c>
+      <c r="D19" t="n">
+        <v>177.5244955863363</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>81</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-12.0883199880502</v>
+      </c>
+      <c r="D20" t="n">
+        <v>170.8314747905214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>82</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-18.02878652998077</v>
+      </c>
+      <c r="D21" t="n">
+        <v>179.001145601558</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>82</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.62420835100587</v>
+      </c>
+      <c r="D22" t="n">
+        <v>182.5244036955334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-9.86026198067955</v>
+      </c>
+      <c r="D23" t="n">
+        <v>179.6079001319349</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>82</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.66786330326786</v>
+      </c>
+      <c r="D24" t="n">
+        <v>182.6896777926376</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>83</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-11.29537399916927</v>
+      </c>
+      <c r="D25" t="n">
+        <v>182.985512910049</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>83</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-14.77726267870409</v>
+      </c>
+      <c r="D26" t="n">
+        <v>188.5462845448174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>84</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.45743323474555</v>
+      </c>
+      <c r="D27" t="n">
+        <v>182.0883482547872</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>84</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.877895180829263</v>
+      </c>
+      <c r="D28" t="n">
+        <v>184.2164482341189</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.54517429320668</v>
+      </c>
+      <c r="D29" t="n">
+        <v>184.1706423782925</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>85</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-17.36948094533476</v>
+      </c>
+      <c r="D30" t="n">
+        <v>178.052651059761</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>85</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-9.971083642442894</v>
+      </c>
+      <c r="D31" t="n">
+        <v>185.0903662648958</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>86</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-14.64723260546183</v>
+      </c>
+      <c r="D32" t="n">
+        <v>178.9532853405661</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>87</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-9.137830801508045</v>
+      </c>
+      <c r="D33" t="n">
+        <v>186.6401356488127</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>87</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-12.72335603536922</v>
+      </c>
+      <c r="D34" t="n">
+        <v>179.6793678067246</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>87</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-16.86552923411721</v>
+      </c>
+      <c r="D35" t="n">
+        <v>186.1901388651395</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>88</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-6.785253642049077</v>
+      </c>
+      <c r="D36" t="n">
+        <v>182.427768681053</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>88</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-9.083269181425313</v>
+      </c>
+      <c r="D37" t="n">
+        <v>189.2323542926313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>88</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-16.64793980103079</v>
+      </c>
+      <c r="D38" t="n">
+        <v>188.9118081957498</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>89</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-5.11325393535194</v>
+      </c>
+      <c r="D39" t="n">
+        <v>184.1268833497714</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-8.875248256846</v>
+      </c>
+      <c r="D40" t="n">
+        <v>183.4190617283847</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>89</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4.377847138876242</v>
+      </c>
+      <c r="D41" t="n">
+        <v>178.8837436244571</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-11.13010655224764</v>
+      </c>
+      <c r="D42" t="n">
+        <v>188.8231036114998</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>91</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.927133581976693</v>
+      </c>
+      <c r="D43" t="n">
+        <v>187.2002514624511</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>91</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-6.892789592340905</v>
+      </c>
+      <c r="D44" t="n">
+        <v>187.7806443978303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-12.40695061628643</v>
+      </c>
+      <c r="D45" t="n">
+        <v>185.8839003828467</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>92</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-13.08103676298393</v>
+      </c>
+      <c r="D46" t="n">
+        <v>187.7698916984506</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>92</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-9.746809382194606</v>
+      </c>
+      <c r="D47" t="n">
+        <v>184.7228682017362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>92</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.824874586513942</v>
+      </c>
+      <c r="D48" t="n">
+        <v>190.2207435045006</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>93</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-6.115776034537381</v>
+      </c>
+      <c r="D49" t="n">
+        <v>198.1478083279539</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>93</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9484728811974799</v>
+      </c>
+      <c r="D50" t="n">
+        <v>196.339188377058</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>94</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.09812852961886219</v>
+      </c>
+      <c r="D51" t="n">
+        <v>191.8309302526625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>96</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-2.601873739396416</v>
+      </c>
+      <c r="D52" t="n">
+        <v>187.2668146662218</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>96</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-6.595644199934619</v>
+      </c>
+      <c r="D53" t="n">
+        <v>191.3181314624053</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>96</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-3.670834849154157</v>
+      </c>
+      <c r="D54" t="n">
+        <v>189.0977748156473</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>97</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02111201053453136</v>
+      </c>
+      <c r="D55" t="n">
+        <v>189.1183521752206</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>97</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.237007718251721</v>
+      </c>
+      <c r="D56" t="n">
+        <v>193.8361992595586</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>97</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-7.593477681770353</v>
+      </c>
+      <c r="D57" t="n">
+        <v>188.1977140463177</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>97</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.849032166795295</v>
+      </c>
+      <c r="D58" t="n">
+        <v>200.439943765528</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>98</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.716654214327624</v>
+      </c>
+      <c r="D59" t="n">
+        <v>202.810071239922</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>98</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.460514827307616</v>
+      </c>
+      <c r="D60" t="n">
+        <v>198.2297435506051</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>98</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.641610318890103</v>
+      </c>
+      <c r="D61" t="n">
+        <v>196.3869815240418</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSB4TYHV_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB4TYHV_po_data.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,16 +1088,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1106,12 +1096,6 @@
       <c r="B2" t="n">
         <v>72</v>
       </c>
-      <c r="C2" t="n">
-        <v>-23.17870295691156</v>
-      </c>
-      <c r="D2" t="n">
-        <v>171.2464854563795</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1120,12 +1104,6 @@
       <c r="B3" t="n">
         <v>73</v>
       </c>
-      <c r="C3" t="n">
-        <v>-22.31227442871758</v>
-      </c>
-      <c r="D3" t="n">
-        <v>175.8274711056413</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,12 +1112,6 @@
       <c r="B4" t="n">
         <v>73</v>
       </c>
-      <c r="C4" t="n">
-        <v>-27.7933072492904</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171.6393807630572</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1148,12 +1120,6 @@
       <c r="B5" t="n">
         <v>73</v>
       </c>
-      <c r="C5" t="n">
-        <v>-27.57592564660463</v>
-      </c>
-      <c r="D5" t="n">
-        <v>178.6028190745696</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1162,12 +1128,6 @@
       <c r="B6" t="n">
         <v>74</v>
       </c>
-      <c r="C6" t="n">
-        <v>-19.40546239322103</v>
-      </c>
-      <c r="D6" t="n">
-        <v>162.7451755532419</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1176,12 +1136,6 @@
       <c r="B7" t="n">
         <v>74</v>
       </c>
-      <c r="C7" t="n">
-        <v>-19.04756806199492</v>
-      </c>
-      <c r="D7" t="n">
-        <v>171.5964373188206</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1190,12 +1144,6 @@
       <c r="B8" t="n">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
-        <v>-22.04123541458574</v>
-      </c>
-      <c r="D8" t="n">
-        <v>168.7068401717488</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,12 +1152,6 @@
       <c r="B9" t="n">
         <v>74</v>
       </c>
-      <c r="C9" t="n">
-        <v>-17.18307259599341</v>
-      </c>
-      <c r="D9" t="n">
-        <v>170.6845228871883</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1218,12 +1160,6 @@
       <c r="B10" t="n">
         <v>75</v>
       </c>
-      <c r="C10" t="n">
-        <v>-18.64649781873675</v>
-      </c>
-      <c r="D10" t="n">
-        <v>173.2109355932137</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1232,12 +1168,6 @@
       <c r="B11" t="n">
         <v>76</v>
       </c>
-      <c r="C11" t="n">
-        <v>-28.02153132516399</v>
-      </c>
-      <c r="D11" t="n">
-        <v>179.9467448169417</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1246,12 +1176,6 @@
       <c r="B12" t="n">
         <v>77</v>
       </c>
-      <c r="C12" t="n">
-        <v>-20.68711174533389</v>
-      </c>
-      <c r="D12" t="n">
-        <v>173.88550339502</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1260,12 +1184,6 @@
       <c r="B13" t="n">
         <v>77</v>
       </c>
-      <c r="C13" t="n">
-        <v>-16.12256572095369</v>
-      </c>
-      <c r="D13" t="n">
-        <v>175.0201481840314</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1274,12 +1192,6 @@
       <c r="B14" t="n">
         <v>77</v>
       </c>
-      <c r="C14" t="n">
-        <v>-17.25789275544621</v>
-      </c>
-      <c r="D14" t="n">
-        <v>174.4990766053326</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1288,12 +1200,6 @@
       <c r="B15" t="n">
         <v>78</v>
       </c>
-      <c r="C15" t="n">
-        <v>-17.5947273267934</v>
-      </c>
-      <c r="D15" t="n">
-        <v>181.4724085642404</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1302,12 +1208,6 @@
       <c r="B16" t="n">
         <v>79</v>
       </c>
-      <c r="C16" t="n">
-        <v>-22.75828070123155</v>
-      </c>
-      <c r="D16" t="n">
-        <v>168.0360761961781</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1316,12 +1216,6 @@
       <c r="B17" t="n">
         <v>79</v>
       </c>
-      <c r="C17" t="n">
-        <v>-18.15390364201326</v>
-      </c>
-      <c r="D17" t="n">
-        <v>180.1492408351156</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1330,12 +1224,6 @@
       <c r="B18" t="n">
         <v>80</v>
       </c>
-      <c r="C18" t="n">
-        <v>-14.65769044632731</v>
-      </c>
-      <c r="D18" t="n">
-        <v>172.0249109633792</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1344,12 +1232,6 @@
       <c r="B19" t="n">
         <v>81</v>
       </c>
-      <c r="C19" t="n">
-        <v>-22.25244819240448</v>
-      </c>
-      <c r="D19" t="n">
-        <v>177.5244955863363</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1358,12 +1240,6 @@
       <c r="B20" t="n">
         <v>81</v>
       </c>
-      <c r="C20" t="n">
-        <v>-12.0883199880502</v>
-      </c>
-      <c r="D20" t="n">
-        <v>170.8314747905214</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1372,12 +1248,6 @@
       <c r="B21" t="n">
         <v>82</v>
       </c>
-      <c r="C21" t="n">
-        <v>-18.02878652998077</v>
-      </c>
-      <c r="D21" t="n">
-        <v>179.001145601558</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1386,12 +1256,6 @@
       <c r="B22" t="n">
         <v>82</v>
       </c>
-      <c r="C22" t="n">
-        <v>-13.62420835100587</v>
-      </c>
-      <c r="D22" t="n">
-        <v>182.5244036955334</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1400,12 +1264,6 @@
       <c r="B23" t="n">
         <v>82</v>
       </c>
-      <c r="C23" t="n">
-        <v>-9.86026198067955</v>
-      </c>
-      <c r="D23" t="n">
-        <v>179.6079001319349</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1414,12 +1272,6 @@
       <c r="B24" t="n">
         <v>82</v>
       </c>
-      <c r="C24" t="n">
-        <v>-10.66786330326786</v>
-      </c>
-      <c r="D24" t="n">
-        <v>182.6896777926376</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1428,12 +1280,6 @@
       <c r="B25" t="n">
         <v>83</v>
       </c>
-      <c r="C25" t="n">
-        <v>-11.29537399916927</v>
-      </c>
-      <c r="D25" t="n">
-        <v>182.985512910049</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1442,12 +1288,6 @@
       <c r="B26" t="n">
         <v>83</v>
       </c>
-      <c r="C26" t="n">
-        <v>-14.77726267870409</v>
-      </c>
-      <c r="D26" t="n">
-        <v>188.5462845448174</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1456,12 +1296,6 @@
       <c r="B27" t="n">
         <v>84</v>
       </c>
-      <c r="C27" t="n">
-        <v>-11.45743323474555</v>
-      </c>
-      <c r="D27" t="n">
-        <v>182.0883482547872</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1470,12 +1304,6 @@
       <c r="B28" t="n">
         <v>84</v>
       </c>
-      <c r="C28" t="n">
-        <v>-9.877895180829263</v>
-      </c>
-      <c r="D28" t="n">
-        <v>184.2164482341189</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1484,12 +1312,6 @@
       <c r="B29" t="n">
         <v>84</v>
       </c>
-      <c r="C29" t="n">
-        <v>-14.54517429320668</v>
-      </c>
-      <c r="D29" t="n">
-        <v>184.1706423782925</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1498,12 +1320,6 @@
       <c r="B30" t="n">
         <v>85</v>
       </c>
-      <c r="C30" t="n">
-        <v>-17.36948094533476</v>
-      </c>
-      <c r="D30" t="n">
-        <v>178.052651059761</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1512,12 +1328,6 @@
       <c r="B31" t="n">
         <v>85</v>
       </c>
-      <c r="C31" t="n">
-        <v>-9.971083642442894</v>
-      </c>
-      <c r="D31" t="n">
-        <v>185.0903662648958</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1526,12 +1336,6 @@
       <c r="B32" t="n">
         <v>86</v>
       </c>
-      <c r="C32" t="n">
-        <v>-14.64723260546183</v>
-      </c>
-      <c r="D32" t="n">
-        <v>178.9532853405661</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1344,6 @@
       <c r="B33" t="n">
         <v>87</v>
       </c>
-      <c r="C33" t="n">
-        <v>-9.137830801508045</v>
-      </c>
-      <c r="D33" t="n">
-        <v>186.6401356488127</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1554,12 +1352,6 @@
       <c r="B34" t="n">
         <v>87</v>
       </c>
-      <c r="C34" t="n">
-        <v>-12.72335603536922</v>
-      </c>
-      <c r="D34" t="n">
-        <v>179.6793678067246</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1568,12 +1360,6 @@
       <c r="B35" t="n">
         <v>87</v>
       </c>
-      <c r="C35" t="n">
-        <v>-16.86552923411721</v>
-      </c>
-      <c r="D35" t="n">
-        <v>186.1901388651395</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1582,12 +1368,6 @@
       <c r="B36" t="n">
         <v>88</v>
       </c>
-      <c r="C36" t="n">
-        <v>-6.785253642049077</v>
-      </c>
-      <c r="D36" t="n">
-        <v>182.427768681053</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1596,12 +1376,6 @@
       <c r="B37" t="n">
         <v>88</v>
       </c>
-      <c r="C37" t="n">
-        <v>-9.083269181425313</v>
-      </c>
-      <c r="D37" t="n">
-        <v>189.2323542926313</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1610,12 +1384,6 @@
       <c r="B38" t="n">
         <v>88</v>
       </c>
-      <c r="C38" t="n">
-        <v>-16.64793980103079</v>
-      </c>
-      <c r="D38" t="n">
-        <v>188.9118081957498</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1624,12 +1392,6 @@
       <c r="B39" t="n">
         <v>89</v>
       </c>
-      <c r="C39" t="n">
-        <v>-5.11325393535194</v>
-      </c>
-      <c r="D39" t="n">
-        <v>184.1268833497714</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1638,12 +1400,6 @@
       <c r="B40" t="n">
         <v>89</v>
       </c>
-      <c r="C40" t="n">
-        <v>-8.875248256846</v>
-      </c>
-      <c r="D40" t="n">
-        <v>183.4190617283847</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1652,12 +1408,6 @@
       <c r="B41" t="n">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
-        <v>-4.377847138876242</v>
-      </c>
-      <c r="D41" t="n">
-        <v>178.8837436244571</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1666,12 +1416,6 @@
       <c r="B42" t="n">
         <v>90</v>
       </c>
-      <c r="C42" t="n">
-        <v>-11.13010655224764</v>
-      </c>
-      <c r="D42" t="n">
-        <v>188.8231036114998</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1680,12 +1424,6 @@
       <c r="B43" t="n">
         <v>91</v>
       </c>
-      <c r="C43" t="n">
-        <v>-5.927133581976693</v>
-      </c>
-      <c r="D43" t="n">
-        <v>187.2002514624511</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1694,12 +1432,6 @@
       <c r="B44" t="n">
         <v>91</v>
       </c>
-      <c r="C44" t="n">
-        <v>-6.892789592340905</v>
-      </c>
-      <c r="D44" t="n">
-        <v>187.7806443978303</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1708,12 +1440,6 @@
       <c r="B45" t="n">
         <v>91</v>
       </c>
-      <c r="C45" t="n">
-        <v>-12.40695061628643</v>
-      </c>
-      <c r="D45" t="n">
-        <v>185.8839003828467</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1722,12 +1448,6 @@
       <c r="B46" t="n">
         <v>92</v>
       </c>
-      <c r="C46" t="n">
-        <v>-13.08103676298393</v>
-      </c>
-      <c r="D46" t="n">
-        <v>187.7698916984506</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1736,12 +1456,6 @@
       <c r="B47" t="n">
         <v>92</v>
       </c>
-      <c r="C47" t="n">
-        <v>-9.746809382194606</v>
-      </c>
-      <c r="D47" t="n">
-        <v>184.7228682017362</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1750,12 +1464,6 @@
       <c r="B48" t="n">
         <v>92</v>
       </c>
-      <c r="C48" t="n">
-        <v>-1.824874586513942</v>
-      </c>
-      <c r="D48" t="n">
-        <v>190.2207435045006</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1764,12 +1472,6 @@
       <c r="B49" t="n">
         <v>93</v>
       </c>
-      <c r="C49" t="n">
-        <v>-6.115776034537381</v>
-      </c>
-      <c r="D49" t="n">
-        <v>198.1478083279539</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1778,12 +1480,6 @@
       <c r="B50" t="n">
         <v>93</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.9484728811974799</v>
-      </c>
-      <c r="D50" t="n">
-        <v>196.339188377058</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1792,12 +1488,6 @@
       <c r="B51" t="n">
         <v>94</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.09812852961886219</v>
-      </c>
-      <c r="D51" t="n">
-        <v>191.8309302526625</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1806,12 +1496,6 @@
       <c r="B52" t="n">
         <v>96</v>
       </c>
-      <c r="C52" t="n">
-        <v>-2.601873739396416</v>
-      </c>
-      <c r="D52" t="n">
-        <v>187.2668146662218</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1820,12 +1504,6 @@
       <c r="B53" t="n">
         <v>96</v>
       </c>
-      <c r="C53" t="n">
-        <v>-6.595644199934619</v>
-      </c>
-      <c r="D53" t="n">
-        <v>191.3181314624053</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1834,12 +1512,6 @@
       <c r="B54" t="n">
         <v>96</v>
       </c>
-      <c r="C54" t="n">
-        <v>-3.670834849154157</v>
-      </c>
-      <c r="D54" t="n">
-        <v>189.0977748156473</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1848,12 +1520,6 @@
       <c r="B55" t="n">
         <v>97</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.02111201053453136</v>
-      </c>
-      <c r="D55" t="n">
-        <v>189.1183521752206</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1862,12 +1528,6 @@
       <c r="B56" t="n">
         <v>97</v>
       </c>
-      <c r="C56" t="n">
-        <v>1.237007718251721</v>
-      </c>
-      <c r="D56" t="n">
-        <v>193.8361992595586</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1876,12 +1536,6 @@
       <c r="B57" t="n">
         <v>97</v>
       </c>
-      <c r="C57" t="n">
-        <v>-7.593477681770353</v>
-      </c>
-      <c r="D57" t="n">
-        <v>188.1977140463177</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1890,12 +1544,6 @@
       <c r="B58" t="n">
         <v>97</v>
       </c>
-      <c r="C58" t="n">
-        <v>2.849032166795295</v>
-      </c>
-      <c r="D58" t="n">
-        <v>200.439943765528</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1904,12 +1552,6 @@
       <c r="B59" t="n">
         <v>98</v>
       </c>
-      <c r="C59" t="n">
-        <v>4.716654214327624</v>
-      </c>
-      <c r="D59" t="n">
-        <v>202.810071239922</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1918,12 +1560,6 @@
       <c r="B60" t="n">
         <v>98</v>
       </c>
-      <c r="C60" t="n">
-        <v>-1.460514827307616</v>
-      </c>
-      <c r="D60" t="n">
-        <v>198.2297435506051</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1931,12 +1567,6 @@
       </c>
       <c r="B61" t="n">
         <v>98</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.641610318890103</v>
-      </c>
-      <c r="D61" t="n">
-        <v>196.3869815240418</v>
       </c>
     </row>
   </sheetData>
